--- a/TestResults/UomTypePut.xlsx
+++ b/TestResults/UomTypePut.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="131">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -64,23 +64,23 @@
 	},
 	"uomType":
 	{
-		"uomTypeCd":"Test_UOMCD",
-		"uomTypeNm":"Test_UOMNM",
-		"uomTypeDesc":"Test_UOMDa"
+		"uomTypeCode":"UOMForPut",
+		"uomTypeName":"UOMForPUTRecord",
+		"uomTypeDescription":"UOMForPutTypeDesc"
 	}
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Input_UomTypeCode: Test_UOMCD
-Input_UomTypeName: Test_UOMNM
-Input_UomTypeDesc: Test_UOMDa
+    <t xml:space="preserve">Input_uomTypeCode: UOMForPut
+Input_uomTypeName: UOMForPUTRecord
+Input_uomTypeDescription: UOMForPutTypeDesc
 Input_LastUpdateUserName: Automation
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_UomTypeCode: Test_UOMCD
-DB_UomTypeName: Test_UOMNM
-DB_UomTypeDesc: Test_UOMDa
+    <t xml:space="preserve">DB_uomTypeCode: UOMForPut
+DB_uomTypeName: UOMForPUTRecord
+DB_uomTypeDescription: UOMForPutTypeDesc
 DB_LastUpdateUserName: Automation
 </t>
   </si>
@@ -97,16 +97,19 @@
 	{
 		"userName":"Automation",
 		"version":"1.0.0",
+		"transactionId":"fa2049b7-5aa9-478a-b69b-066d0b08a968",
+		"timeStamp":"2020-06-19 08:53:44",
+		"statusCode":"200",
 		"message":
 		{
 			"status":"SUCCESS",
-			"internalMessage":"REFUOMTYPE Details successfully updated with uomTypeCd :Test_UOMCD",
+			"internalMessage":"REFUOMTYPE Details successfully updated with uomTypeCode :UOMForPut",
 			"data":null
 		}
 	},
 	"data":
 	{
-		"uomTypeCd":"Test_UOMCD"
+		"uomTypeCode":"UOMForPut"
 	}
 }</t>
   </si>
@@ -115,6 +118,1086 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>Verify the JMS-PASSED queue after the UOM Type Put request sent</t>
+  </si>
+  <si>
+    <t>JMS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_uomTypeCode: UOMForPut
+DB_uomTypeCode: UOMForPut
+Response_uomTypeNm: UOMForPUTRecord
+DB_uomTypeName: UOMForPUTRecord
+Response_uomTypeDesc: UOMForPutTypeDesc
+DB_uomTypeDescription: UOMForPutTypeDesc
+</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Validate that the UomType service is not getting updated when theUOM Type Code is empty in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"uomType":
+	{
+		"uomTypeCode":"",
+		"uomTypeName":"UOMForPUTRecordA",
+		"uomTypeDescription":"UOMForPutTypeDesca"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_uomTypeCode: 
+Input_uomTypeName: UOMForPUTRecordA
+Input_uomTypeDescription: UOMForPutTypeDesca
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 400 Bad Request</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"c204aece-d19e-42cd-9136-537cc44b881d",
+		"timeStamp":"2020-06-19 08:53:58",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"uomTypeCode",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the empty value is passed in JSON for UOMTypeNm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"uomType":
+	{
+		"uomTypeCode":"UOMForPut",
+		"uomTypeName":"",
+		"uomTypeDescription":"TestUOMDa"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_uomTypeCode: UOMForPut
+Input_uomTypeName: 
+Input_uomTypeDescription: TestUOMDa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"0d8069db-4b2a-4e06-a5a5-df16649f9af8",
+		"timeStamp":"2020-06-19 08:53:59",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"uomTypeName",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the UOM Type service is successfully updated when the empty value is passed in JSON for UOMTypeDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"uomType":
+	{
+		"uomTypeCode":"UOMForPut",
+		"uomTypeName":"UOMForPUTRecord",
+		"uomTypeDescription":""
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_uomTypeCode: UOMForPut
+Input_uomTypeName: UOMForPUTRecord
+Input_uomTypeDescription: 
+Input_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_uomTypeCode: UOMForPut
+DB_uomTypeName: UOMForPUTRecord
+DB_uomTypeDescription: 
+DB_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"b6e983a0-c5b3-4709-9217-558e8fb84e4d",
+		"timeStamp":"2020-06-19 08:54:01",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"REFUOMTYPE Details successfully updated with uomTypeCode :UOMForPut",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"uomTypeCode":"UOMForPut"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the meta data section is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"uomType":
+	{
+		"uomTypeCode":"UOMForPut",
+		"uomTypeName":"UOMForPUTRecord",
+		"uomTypeDescription":"TestUOMDa"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_uomTypeCode: UOMForPut
+Input_uomTypeName: UOMForPUTRecord
+Input_uomTypeDescription: TestUOMDa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"dba8e4a5-6b8b-40a9-9686-aed48e3497d2",
+		"timeStamp":"2020-06-19 08:54:03",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"meta",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the UOMTypeCd attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"uomType":
+	{
+		"uomTypeName":"UOMForPUTRecord",
+		"uomTypeDescription":"TestUOMDa"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_uomTypeCode: 
+Input_uomTypeName: UOMForPUTRecord
+Input_uomTypeDescription: TestUOMDa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"5872eaea-e155-461e-ac83-9090030e554f",
+		"timeStamp":"2020-06-19 08:54:05",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"uomTypeCode",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the UOMTypeNm attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"uomType":
+	{
+		"uomTypeCode":"UOMForPut",
+		"uomTypeDescription":"TestUOMDa"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"dfd20188-dc21-4c63-875a-852e513a93b7",
+		"timeStamp":"2020-06-19 08:54:06",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"uomTypeName",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Verify that the UOM Type service is successfully updated when the UOMTypeDesc attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"uomType":
+	{
+		"uomTypeCode":"UOMForPut",
+		"uomTypeName":"TestUOMNM"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_uomTypeCode: UOMForPut
+Input_uomTypeName: TestUOMNM
+Input_uomTypeDescription: 
+Input_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_uomTypeCode: UOMForPut
+DB_uomTypeName: TestUOMNM
+DB_uomTypeDescription: 
+DB_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"40f6f446-9e02-4f67-969e-81a179153fb7",
+		"timeStamp":"2020-06-19 08:54:08",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"REFUOMTYPE Details successfully updated with uomTypeCode :UOMForPut",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"uomTypeCode":"UOMForPut"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the user name is null or Empty in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":""
+	},
+	"uomType":
+	{
+		"uomTypeCode":"UOMForPut",
+		"uomTypeName":"TestUOMNM",
+		"uomTypeDescription":"TestUOMDa"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 
+Input_uomTypeCode: UOMForPut
+Input_uomTypeName: TestUOMNM
+Input_uomTypeDescription: TestUOMDa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"50e56756-9062-409e-96a4-d2c78115798f",
+		"timeStamp":"2020-06-19 08:54:10",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" is a required field"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the UOMTypeCd is more than 10 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"uomType":
+	{
+		"uomTypeCode":"TestaUOMCDNew",
+		"uomTypeName":"TestUOMNM",
+		"uomTypeDescription":"TestUOMDa"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_uomTypeCode: TestaUOMCDNew
+Input_uomTypeName: TestUOMNM
+Input_uomTypeDescription: TestUOMDa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"bee9cd7f-88e2-40dd-b23a-7c80f89a253a",
+		"timeStamp":"2020-06-19 08:54:12",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"uomTypeCode",
+			"message":" cannot be greater 10 characters!"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the UOMTypeNm is more than 256 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"uomType":
+	{
+		"uomTypeCode":"UOMForPut",
+		"uomTypeName":"TestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestU",
+		"uomTypeDescription":"TestUOMDa"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_uomTypeCode: UOMForPut
+Input_uomTypeName: TestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestU
+Input_uomTypeDescription: TestUOMDa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"f867b823-02a2-4dac-8114-4cf346a6f8f8",
+		"timeStamp":"2020-06-19 08:54:13",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"uomTypeName",
+			"message":" cannot be greater 256 characters!"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the UOMTypeDesc is more than 1000 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"uomType":
+	{
+		"uomTypeCode":"UOMForPut",
+		"uomTypeName":"TestUOMNM",
+		"uomTypeDescription":"TestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestU"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_uomTypeCode: UOMForPut
+Input_uomTypeName: TestUOMNM
+Input_uomTypeDescription: TestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestU
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"c1112d88-8d49-468a-9343-6f24a15c9082",
+		"timeStamp":"2020-06-19 08:54:14",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"uomTypeDescription",
+			"message":" cannot be greater 1000 characters!"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when the User Name is more than 25 characters length in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"AutomationAutomationAutoation"
+	},
+	"uomType":
+	{
+		"uomTypeCode":"UOMForPut",
+		"uomTypeName":"TestUOMNM",
+		"uomTypeDescription":"TestUOMDa"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: AutomationAutomationAutoation
+Input_uomTypeCode: UOMForPut
+Input_uomTypeName: TestUOMNM
+Input_uomTypeDescription: TestUOMDa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"3e828498-c19a-4ab3-9da8-622c3354af6b",
+		"timeStamp":"2020-06-19 08:54:16",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Validation Failed",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"userName",
+			"message":" cannot be greater than 25 characters"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>Verify that the Exception is received when the URI is not correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"uomType":
+	{
+		"uomTypeCode":"UOMForPut",
+		"uomTypeName":"TestUOMNM",
+		"uomTypeDescription":"TestUOMDa"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_uomTypeCode: UOMForPut
+Input_uomTypeName: TestUOMNM
+Input_uomTypeDescription: TestUOMDa
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 404 Not Found</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"cdf5ce5f-9488-4219-9bbf-4cc904cf0075",
+		"timeStamp":"2020-06-19 08:54:17",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Could not find the PUT method for URL /v1/uo"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>Verify that the UOM Type service is successfully updated when valid values are passed for all attributes with exact length in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"uomType":
+	{
+		"uomTypeCode":"TestUOMCOD",
+		"uomTypeName":"TestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOM",
+		"uomTypeDescription":"TestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTed"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_uomTypeCode: TestUOMCOD
+Input_uomTypeName: TestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOM
+Input_uomTypeDescription: TestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTed
+Input_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_UserName: Automation
+DB_uomTypeCode: TestUOMCOD
+DB_uomTypeName: TestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOM
+DB_uomTypeDescription: TestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTed
+DB_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"4f2eca5c-a0b7-4e88-bc01-e849671b38d5",
+		"timeStamp":"2020-06-19 08:54:19",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"REFUOMTYPE Details successfully updated with uomTypeCode :TestUOMCOD",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"uomTypeCode":"TestUOMCOD"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the ERROR message is received when the invalid uomTypeCd (not exist in DB) is passed in JSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"uomType":
+	{
+		"uomTypeCode":"QWER11hq",
+		"uomTypeName":"Milli1234VGFL",
+		"uomTypeDescription":"testetsetstestestet"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_uomTypeCode: QWER11hq
+Input_uomTypeName: Milli1234VGFL
+Input_uomTypeDescription: testetsetstestestet
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"8d2952f3-d651-448b-bd61-d1adab2099a2",
+		"timeStamp":"2020-06-19 08:54:21",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Resource Not Found",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Record not found"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>Verify that the UOM Type service is successfully updated when special characters are passed for UomtypeCd attribute in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"uomType":
+	{
+		"uomTypeCode":"!*&amp;%@#@#",
+		"uomTypeName":"TestUOMNameb",
+		"uomTypeDescription":"TestUOMDescb"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_uomTypeCode: !*&amp;%@#@#
+Input_uomTypeName: TestUOMNameb
+Input_uomTypeDescription: TestUOMDescb
+Input_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_uomTypeCode: !*&amp;%@#@#
+DB_uomTypeName: TestUOMNameb
+DB_uomTypeDescription: TestUOMDescb
+DB_LastUpdateUserName: Automation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"a92a14f1-cff2-4e73-8df8-d5292d59c85f",
+		"timeStamp":"2020-06-19 08:54:23",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"REFUOMTYPE Details successfully updated with uomTypeCode :!*&amp;%@#@#",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"uomTypeCode":"!*&amp;%@#@#"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when if any comma/bracket is missing in request then we will get the JSON parse error: Unexpected character in response.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"uomType":
+	{
+		"uomTypeCode":"UOMForPut" "uomTypeName":"UOMForPUTRecord" "uomTypeDescription":"UOMForPutTypeDesc"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: Automation
+Input_uomTypeCode: UOMForPut
+Input_uomTypeName: UOMForPUTRecord
+Input_uomTypeDescription: UOMForPutTypeDesc
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"bb248215-1530-43aa-8a17-bec238840f37",
+		"timeStamp":"2020-06-19 08:54:25",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Json Parser Error",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"JSON parse error: Unexpected character ('\"' (code 34)): was expecting comma to separate Object entries"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when we use PUT url but selecting GET method.</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 405 Method Not Allowed</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"2308d2b6-7174-4e04-8a03-c03516a90f64",
+		"timeStamp":"2020-06-19 08:54:27",
+		"statusCode":"405",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"No Such API Exists",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Request method 'GET' not supported"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when missing HTTP Header X-CSR-SECURITY_TOKEN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3705426"
+	},
+	"uomType":
+	{
+		"uomTypeCode":"TesAACDQ",
+		"uomTypeName":"TesAANQQ",
+		"uomTypeDescription":"TeAAMDCQ"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3705426
+Input_uomTypeCode: TesAACDQ
+Input_uomTypeName: TesAANQQ
+Input_uomTypeDescription: TeAAMDCQ
+</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-06-19T08:54:28.980+0000",
+		"statusCode":"401",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Security Error",
+			"data":
+			{
+				"errorMessage":"Exception occurred in Security Filter"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"NA",
+			"message":"Missing HTTP header X-CSR-SECURITY_TOKEN"
+		}
+	]
+}</t>
   </si>
 </sst>
 </file>
@@ -122,7 +1205,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="233">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -135,6 +1218,1106 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -258,7 +2441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -294,6 +2477,666 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -308,17 +3151,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -392,6 +3235,726 @@
       </c>
       <c r="L2"/>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s" s="15">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s" s="16">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="18">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="21">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="23">
+        <v>21</v>
+      </c>
+      <c r="L3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="24">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s" s="25">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s" s="29">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s" s="30">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s" s="31">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s" s="32">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s" s="34">
+        <v>21</v>
+      </c>
+      <c r="L4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="38">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s" s="39">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s" s="40">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s" s="41">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s" s="42">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s" s="43">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s" s="44">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s" s="45">
+        <v>21</v>
+      </c>
+      <c r="L5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="46">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="47">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s" s="48">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="49">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s" s="50">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s" s="51">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s" s="52">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s" s="53">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s" s="54">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s" s="55">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s" s="56">
+        <v>21</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="57">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s" s="58">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s" s="59">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="60">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s" s="61">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s" s="62">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s" s="63">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s" s="64">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s" s="65">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s" s="66">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s" s="67">
+        <v>21</v>
+      </c>
+      <c r="L7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="68">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s" s="69">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s" s="70">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="71">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s" s="72">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s" s="73">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s" s="74">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s" s="75">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s" s="76">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s" s="77">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s" s="78">
+        <v>21</v>
+      </c>
+      <c r="L8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="79">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s" s="80">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s" s="81">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="82">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s" s="83">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s" s="84">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s" s="85">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s" s="86">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s" s="87">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s" s="88">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s" s="89">
+        <v>21</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="90">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s" s="92">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="93">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s" s="94">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s" s="95">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s" s="97">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s" s="98">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s" s="99">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s" s="100">
+        <v>21</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="101">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s" s="103">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="104">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s" s="105">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s" s="106">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s" s="107">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s" s="108">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s" s="109">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s" s="110">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s" s="111">
+        <v>21</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="112">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s" s="113">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s" s="116">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s" s="117">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s" s="118">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s" s="119">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s" s="120">
+        <v>74</v>
+      </c>
+      <c r="J12" t="s" s="121">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s" s="122">
+        <v>21</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="123">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s" s="124">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s" s="125">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="126">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s" s="127">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s" s="128">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s" s="129">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s" s="130">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s" s="131">
+        <v>79</v>
+      </c>
+      <c r="J13" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s" s="133">
+        <v>21</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="134">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s" s="135">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s" s="136">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="137">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s" s="138">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s" s="139">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s" s="140">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s" s="141">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s" s="142">
+        <v>84</v>
+      </c>
+      <c r="J14" t="s" s="143">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s" s="144">
+        <v>21</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="145">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s" s="146">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s" s="147">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="148">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s" s="149">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s" s="150">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s" s="151">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s" s="152">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s" s="153">
+        <v>89</v>
+      </c>
+      <c r="J15" t="s" s="154">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s" s="155">
+        <v>21</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="156">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s" s="157">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s" s="158">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="159">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s" s="160">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s" s="161">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s" s="162">
+        <v>94</v>
+      </c>
+      <c r="H16" t="s" s="163">
+        <v>95</v>
+      </c>
+      <c r="I16" t="s" s="164">
+        <v>96</v>
+      </c>
+      <c r="J16" t="s" s="165">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s" s="166">
+        <v>21</v>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="167">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s" s="168">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s" s="169">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="170">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s" s="171">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s" s="172">
+        <v>101</v>
+      </c>
+      <c r="G17" t="s" s="173">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s" s="174">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s" s="175">
+        <v>102</v>
+      </c>
+      <c r="J17" t="s" s="176">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s" s="177">
+        <v>21</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="178">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s" s="179">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s" s="180">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="181">
+        <v>105</v>
+      </c>
+      <c r="E18" t="s" s="182">
+        <v>106</v>
+      </c>
+      <c r="F18" t="s" s="183">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s" s="184">
+        <v>94</v>
+      </c>
+      <c r="H18" t="s" s="185">
+        <v>95</v>
+      </c>
+      <c r="I18" t="s" s="186">
+        <v>107</v>
+      </c>
+      <c r="J18" t="s" s="187">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s" s="188">
+        <v>21</v>
+      </c>
+      <c r="L18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="189">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s" s="190">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s" s="191">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="192">
+        <v>110</v>
+      </c>
+      <c r="E19" t="s" s="193">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s" s="194">
+        <v>112</v>
+      </c>
+      <c r="G19" t="s" s="195">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s" s="196">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s" s="197">
+        <v>113</v>
+      </c>
+      <c r="J19" t="s" s="198">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s" s="199">
+        <v>21</v>
+      </c>
+      <c r="L19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="200">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s" s="201">
+        <v>115</v>
+      </c>
+      <c r="C20" t="s" s="202">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="203">
+        <v>116</v>
+      </c>
+      <c r="E20" t="s" s="204">
+        <v>117</v>
+      </c>
+      <c r="F20" t="s" s="205">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s" s="206">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s" s="207">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s" s="208">
+        <v>118</v>
+      </c>
+      <c r="J20" t="s" s="209">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s" s="210">
+        <v>21</v>
+      </c>
+      <c r="L20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="211">
+        <v>119</v>
+      </c>
+      <c r="B21" t="s" s="212">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s" s="213">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="214">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="215">
+        <v>117</v>
+      </c>
+      <c r="F21" t="s" s="216">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s" s="217">
+        <v>121</v>
+      </c>
+      <c r="H21" t="s" s="218">
+        <v>122</v>
+      </c>
+      <c r="I21" t="s" s="219">
+        <v>123</v>
+      </c>
+      <c r="J21" t="s" s="220">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s" s="221">
+        <v>21</v>
+      </c>
+      <c r="L21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="222">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s" s="223">
+        <v>125</v>
+      </c>
+      <c r="C22" t="s" s="224">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="225">
+        <v>126</v>
+      </c>
+      <c r="E22" t="s" s="226">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s" s="227">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s" s="228">
+        <v>128</v>
+      </c>
+      <c r="H22" t="s" s="229">
+        <v>129</v>
+      </c>
+      <c r="I22" t="s" s="230">
+        <v>130</v>
+      </c>
+      <c r="J22" t="s" s="231">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s" s="232">
+        <v>21</v>
+      </c>
+      <c r="L22"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
